--- a/a5/white/master.xlsx
+++ b/a5/white/master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="13940" yWindow="0" windowWidth="13940" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="8">
+  <si>
+    <t>PartipantID</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Vis</t>
+  </si>
+  <si>
+    <t>VisID</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>TruePerc</t>
+  </si>
+  <si>
+    <t>ReportPerc</t>
+  </si>
+  <si>
+    <t>BarChart</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +411,1418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:G61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.8870480000000001</v>
+      </c>
+      <c r="F2">
+        <v>77.272549999999995</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-1.1562996999999999</v>
+      </c>
+      <c r="F3">
+        <v>71.676339999999996</v>
+      </c>
+      <c r="G3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2.6534433000000002</v>
+      </c>
+      <c r="F4">
+        <v>62.166670000000003</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-0.13546320000000001</v>
+      </c>
+      <c r="F5">
+        <v>87.785380000000004</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4.1424437000000003</v>
+      </c>
+      <c r="F6">
+        <v>77.53537</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1.4084582000000001</v>
+      </c>
+      <c r="F7">
+        <v>49.529533000000001</v>
+      </c>
+      <c r="G7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1.3947809</v>
+      </c>
+      <c r="F8">
+        <v>85.744699999999995</v>
+      </c>
+      <c r="G8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3.2919762000000001</v>
+      </c>
+      <c r="F9">
+        <v>24.669530000000002</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.9055545</v>
+      </c>
+      <c r="F10">
+        <v>23.621528999999999</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2.7948233999999998</v>
+      </c>
+      <c r="F11">
+        <v>66.814459999999997</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.22532985</v>
+      </c>
+      <c r="F12">
+        <v>53.955956</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-1.3196679</v>
+      </c>
+      <c r="F13">
+        <v>99.724369999999993</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1.6426122999999999</v>
+      </c>
+      <c r="F14">
+        <v>82.002690000000001</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3.0296012999999999</v>
+      </c>
+      <c r="F15">
+        <v>68.040840000000003</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3.301466</v>
+      </c>
+      <c r="F16">
+        <v>64.734170000000006</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1.5945450000000001</v>
+      </c>
+      <c r="F17">
+        <v>42.894992999999999</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>-1.7929474999999999</v>
+      </c>
+      <c r="F18">
+        <v>70.163579999999996</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-0.9203694</v>
+      </c>
+      <c r="F19">
+        <v>98.596630000000005</v>
+      </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1.661592</v>
+      </c>
+      <c r="F20">
+        <v>43.038654000000001</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-1.0896148999999999</v>
+      </c>
+      <c r="F21">
+        <v>92.344890000000007</v>
+      </c>
+      <c r="G21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1.4896518999999999</v>
+      </c>
+      <c r="F22">
+        <v>82.316789999999997</v>
+      </c>
+      <c r="G22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.52272713000000004</v>
+      </c>
+      <c r="F23">
+        <v>43.688330000000001</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-0.44616073000000001</v>
+      </c>
+      <c r="F24">
+        <v>89.391009999999994</v>
+      </c>
+      <c r="G24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.5673249</v>
+      </c>
+      <c r="F25">
+        <v>47.161453000000002</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1.9369111000000001</v>
+      </c>
+      <c r="F26">
+        <v>76.296149999999997</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.5526203000000001</v>
+      </c>
+      <c r="F27">
+        <v>42.808495000000001</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3.0710130000000002</v>
+      </c>
+      <c r="F28">
+        <v>74.721369999999993</v>
+      </c>
+      <c r="G28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3.11972</v>
+      </c>
+      <c r="F29">
+        <v>83.432810000000003</v>
+      </c>
+      <c r="G29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>-1.1475436999999999</v>
+      </c>
+      <c r="F30">
+        <v>97.326390000000004</v>
+      </c>
+      <c r="G30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0.98552793000000005</v>
+      </c>
+      <c r="F31">
+        <v>53.144962</v>
+      </c>
+      <c r="G31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1.7394278999999999</v>
+      </c>
+      <c r="F32">
+        <v>66.785970000000006</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2.4414408000000001</v>
+      </c>
+      <c r="F33">
+        <v>55.306840000000001</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1.730931</v>
+      </c>
+      <c r="F34">
+        <v>87.805580000000006</v>
+      </c>
+      <c r="G34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1.7154526999999999</v>
+      </c>
+      <c r="F35">
+        <v>43.158996999999999</v>
+      </c>
+      <c r="G35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.92458344000000003</v>
+      </c>
+      <c r="F36">
+        <v>48.226863999999999</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0.52797329999999998</v>
+      </c>
+      <c r="F37">
+        <v>73.683099999999996</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.78502769999999999</v>
+      </c>
+      <c r="F38">
+        <v>38.401874999999997</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2.7439534999999999</v>
+      </c>
+      <c r="F39">
+        <v>83.425963999999993</v>
+      </c>
+      <c r="G39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1.7683975000000001</v>
+      </c>
+      <c r="F40">
+        <v>86.718249999999998</v>
+      </c>
+      <c r="G40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3.3220675000000002</v>
+      </c>
+      <c r="F41">
+        <v>34.875965000000001</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2.1243433999999999</v>
+      </c>
+      <c r="F42">
+        <v>69.235050000000001</v>
+      </c>
+      <c r="G42">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>-0.88308746000000005</v>
+      </c>
+      <c r="F43">
+        <v>99.582794000000007</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1.6627970999999999</v>
+      </c>
+      <c r="F44">
+        <v>73.041300000000007</v>
+      </c>
+      <c r="G44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1.2476494</v>
+      </c>
+      <c r="F45">
+        <v>97.750460000000004</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.86500823000000004</v>
+      </c>
+      <c r="F46">
+        <v>31.696349999999999</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1.3793488</v>
+      </c>
+      <c r="F47">
+        <v>37.476509999999998</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.28607939999999998</v>
+      </c>
+      <c r="F48">
+        <v>98.905680000000004</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2.0699480000000001</v>
+      </c>
+      <c r="F49">
+        <v>74.073715000000007</v>
+      </c>
+      <c r="G49">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2.148911</v>
+      </c>
+      <c r="F50">
+        <v>74.309929999999994</v>
+      </c>
+      <c r="G50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>-0.54130500000000004</v>
+      </c>
+      <c r="F51">
+        <v>90.562150000000003</v>
+      </c>
+      <c r="G51">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1.4204414000000001</v>
+      </c>
+      <c r="F52">
+        <v>52.551673999999998</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2.4992874</v>
+      </c>
+      <c r="F53">
+        <v>69.470939999999999</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1.7305463999999999</v>
+      </c>
+      <c r="F54">
+        <v>61.806465000000003</v>
+      </c>
+      <c r="G54">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-1.365189</v>
+      </c>
+      <c r="F55">
+        <v>90.263180000000006</v>
+      </c>
+      <c r="G55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1.4607197999999999</v>
+      </c>
+      <c r="F56">
+        <v>37.372543</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>-8.9450954999999999E-2</v>
+      </c>
+      <c r="F57">
+        <v>44.185119999999998</v>
+      </c>
+      <c r="G57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2.0669696000000002</v>
+      </c>
+      <c r="F58">
+        <v>69.065055999999998</v>
+      </c>
+      <c r="G58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-1.6661208E-2</v>
+      </c>
+      <c r="F59">
+        <v>99.136480000000006</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-0.57026637000000002</v>
+      </c>
+      <c r="F60">
+        <v>94.451509999999999</v>
+      </c>
+      <c r="G60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.58357495000000004</v>
+      </c>
+      <c r="F61">
+        <v>93.626440000000002</v>
+      </c>
+      <c r="G61">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
